--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -467,23 +467,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>875000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5357142.857142857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -493,7 +493,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -503,7 +503,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -513,7 +513,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -523,7 +523,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -533,7 +533,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -543,27 +543,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5142857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -573,7 +573,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -583,7 +583,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -593,7 +593,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,7 +613,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -623,27 +623,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +653,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +663,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,7 +673,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -683,7 +683,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,7 +693,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -703,27 +703,27 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>6232142.857142857</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +733,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,91 +743,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>5982857.142857143</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>5982857.142857143</v>
+        <v>6232142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,21 +453,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>875000</v>
+        <v>980000</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5357142.857142857</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5">
@@ -553,17 +553,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -573,7 +573,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -583,17 +583,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,7 +613,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -633,17 +633,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +653,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +663,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,7 +673,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -683,7 +683,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,17 +693,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -713,17 +713,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6232142.857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +733,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,11 +743,71 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6980000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>6232142.857142857</v>
+      <c r="B37" t="n">
+        <v>6980000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-35 Lâm Thị Hường 7-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -573,27 +573,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,7 +613,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -633,7 +633,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -643,7 +643,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +653,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,7 +663,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -673,17 +673,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,17 +693,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -713,7 +713,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -723,7 +723,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +733,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,7 +743,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -753,17 +753,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6980000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -773,40 +773,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6980000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
         <v>6980000</v>
       </c>
     </row>
